--- a/rosters/2023/Miami/Miami.xlsx
+++ b/rosters/2023/Miami/Miami.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -52,36 +52,33 @@
     <t>Bam Adebayo</t>
   </si>
   <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
     <t>Kyle Lowry</t>
   </si>
   <si>
-    <t>Caleb Martin</t>
-  </si>
-  <si>
-    <t>Tyler Herro</t>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
   </si>
   <si>
     <t>Haywood Highsmith</t>
   </si>
   <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Dewayne Dedmon</t>
-  </si>
-  <si>
     <t>Duncan Robinson</t>
   </si>
   <si>
+    <t>Orlando Robinson (TW)</t>
+  </si>
+  <si>
     <t>Victor Oladipo</t>
   </si>
   <si>
-    <t>Orlando Robinson (TW)</t>
-  </si>
-  <si>
     <t>Nikola Jović</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>Udonis Haslem</t>
   </si>
   <si>
+    <t>Jamaree Bouyea</t>
+  </si>
+  <si>
     <t>Omer Yurtseven</t>
   </si>
   <si>
@@ -100,15 +100,15 @@
     <t>C</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>6-0</t>
   </si>
   <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>7-0</t>
   </si>
   <si>
@@ -136,42 +136,42 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>6-2</t>
+  </si>
+  <si>
     <t>March 28, 1996</t>
   </si>
   <si>
     <t>July 18, 1997</t>
   </si>
   <si>
+    <t>September 28, 1995</t>
+  </si>
+  <si>
+    <t>January 20, 2000</t>
+  </si>
+  <si>
     <t>March 25, 1986</t>
   </si>
   <si>
-    <t>September 28, 1995</t>
-  </si>
-  <si>
-    <t>January 20, 2000</t>
+    <t>June 14, 1996</t>
+  </si>
+  <si>
+    <t>September 14, 1989</t>
   </si>
   <si>
     <t>December 9, 1996</t>
   </si>
   <si>
-    <t>September 14, 1989</t>
-  </si>
-  <si>
-    <t>June 14, 1996</t>
-  </si>
-  <si>
-    <t>August 12, 1989</t>
-  </si>
-  <si>
     <t>April 22, 1994</t>
   </si>
   <si>
+    <t>July 10, 2000</t>
+  </si>
+  <si>
     <t>May 4, 1992</t>
   </si>
   <si>
-    <t>July 10, 2000</t>
-  </si>
-  <si>
     <t>June 9, 2003</t>
   </si>
   <si>
@@ -181,6 +181,9 @@
     <t>June 9, 1980</t>
   </si>
   <si>
+    <t>June 27, 1999</t>
+  </si>
+  <si>
     <t>June 19, 1998</t>
   </si>
   <si>
@@ -202,21 +205,21 @@
     <t>16</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>11</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -229,39 +232,39 @@
     <t>Kentucky</t>
   </si>
   <si>
+    <t>NC State, Nevada</t>
+  </si>
+  <si>
     <t>Villanova</t>
   </si>
   <si>
-    <t>NC State, Nevada</t>
+    <t>UC Santa Barbara</t>
+  </si>
+  <si>
+    <t>Marquette</t>
   </si>
   <si>
     <t>Wheeling University</t>
   </si>
   <si>
-    <t>Marquette</t>
-  </si>
-  <si>
-    <t>UC Santa Barbara</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
     <t>Williams, Michigan</t>
   </si>
   <si>
+    <t>Fresno State</t>
+  </si>
+  <si>
     <t>Indiana</t>
   </si>
   <si>
-    <t>Fresno State</t>
-  </si>
-  <si>
     <t>Marquette, Oakland</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
     <t>NC State, Georgetown</t>
   </si>
   <si>
@@ -271,36 +274,33 @@
     <t>https://www.basketball-reference.com/players/a/adebaba01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/martica02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/herroty01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/lowryky01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/martica02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/herroty01.html</t>
+    <t>https://www.basketball-reference.com/players/v/vincega01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/butleji01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/highsha01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/butleji01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/v/vincega01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/d/dedmode01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/r/robindu01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/robinor01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/o/oladivi01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/robinor01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/jovicni01.html</t>
   </si>
   <si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/hasleud01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/bouyeja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/y/yurtsom01.html</t>
@@ -739,19 +742,19 @@
         <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -774,19 +777,19 @@
         <v>255</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -794,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -803,25 +806,25 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -829,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -841,22 +844,22 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -864,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -873,25 +876,25 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -899,34 +902,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -943,25 +946,25 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>230</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
         <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -969,34 +972,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1004,34 +1007,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1039,34 +1042,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1080,7 +1083,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -1089,19 +1092,19 @@
         <v>213</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1109,34 +1112,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
         <v>66</v>
       </c>
-      <c r="J13" t="s">
-        <v>79</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1144,22 +1144,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
         <v>57</v>
@@ -1167,8 +1167,11 @@
       <c r="I14" t="s">
         <v>66</v>
       </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1176,34 +1179,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1211,34 +1214,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1258,19 +1261,19 @@
         <v>264</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Miami/Miami.xlsx
+++ b/rosters/2023/Miami/Miami.xlsx
@@ -58,15 +58,15 @@
     <t>Tyler Herro</t>
   </si>
   <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
     <t>Kyle Lowry</t>
   </si>
   <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
-    <t>Jimmy Butler</t>
-  </si>
-  <si>
     <t>Haywood Highsmith</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>Udonis Haslem</t>
   </si>
   <si>
-    <t>Jamaree Bouyea</t>
-  </si>
-  <si>
     <t>Omer Yurtseven</t>
   </si>
   <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
@@ -115,15 +115,15 @@
     <t>6-9</t>
   </si>
   <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>6-0</t>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>7-0</t>
   </si>
   <si>
@@ -136,9 +136,6 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
     <t>March 28, 1996</t>
   </si>
   <si>
@@ -151,15 +148,15 @@
     <t>January 20, 2000</t>
   </si>
   <si>
+    <t>June 14, 1996</t>
+  </si>
+  <si>
+    <t>September 14, 1989</t>
+  </si>
+  <si>
     <t>March 25, 1986</t>
   </si>
   <si>
-    <t>June 14, 1996</t>
-  </si>
-  <si>
-    <t>September 14, 1989</t>
-  </si>
-  <si>
     <t>December 9, 1996</t>
   </si>
   <si>
@@ -181,12 +178,12 @@
     <t>June 9, 1980</t>
   </si>
   <si>
-    <t>June 27, 1999</t>
-  </si>
-  <si>
     <t>June 19, 1998</t>
   </si>
   <si>
+    <t>September 7, 1988</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -202,12 +199,12 @@
     <t>5</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Lewis (IL), DePaul</t>
   </si>
   <si>
@@ -235,15 +235,15 @@
     <t>NC State, Nevada</t>
   </si>
   <si>
+    <t>UC Santa Barbara</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
     <t>Villanova</t>
   </si>
   <si>
-    <t>UC Santa Barbara</t>
-  </si>
-  <si>
-    <t>Marquette</t>
-  </si>
-  <si>
     <t>Wheeling University</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
     <t>NC State, Georgetown</t>
   </si>
   <si>
+    <t>UCLA</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/strusma01.html</t>
   </si>
   <si>
@@ -280,15 +280,15 @@
     <t>https://www.basketball-reference.com/players/h/herroty01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/v/vincega01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/butleji01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/lowryky01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/v/vincega01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/butleji01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/highsha01.html</t>
   </si>
   <si>
@@ -310,10 +310,10 @@
     <t>https://www.basketball-reference.com/players/h/hasleud01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bouyeja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/y/yurtsom01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/l/loveke01.html</t>
   </si>
 </sst>
 </file>
@@ -742,13 +742,13 @@
         <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
         <v>70</v>
@@ -777,13 +777,13 @@
         <v>255</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
         <v>71</v>
@@ -812,13 +812,13 @@
         <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
         <v>72</v>
@@ -847,13 +847,13 @@
         <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
         <v>71</v>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -879,16 +879,16 @@
         <v>33</v>
       </c>
       <c r="F6">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>
@@ -902,28 +902,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
         <v>74</v>
@@ -937,28 +937,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
         <v>75</v>
@@ -981,19 +981,19 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>220</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
         <v>76</v>
@@ -1016,19 +1016,19 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
         <v>77</v>
@@ -1057,13 +1057,13 @@
         <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -1092,13 +1092,13 @@
         <v>213</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -1127,13 +1127,13 @@
         <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>95</v>
@@ -1153,19 +1153,19 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>191</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
         <v>80</v>
@@ -1194,13 +1194,13 @@
         <v>235</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
         <v>81</v>
@@ -1213,29 +1213,26 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>11</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
         <v>82</v>
@@ -1252,19 +1249,19 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
         <v>69</v>

--- a/rosters/2023/Miami/Miami.xlsx
+++ b/rosters/2023/Miami/Miami.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
   <si>
     <t>No.</t>
   </si>
@@ -64,10 +64,13 @@
     <t>Jimmy Butler</t>
   </si>
   <si>
+    <t>Haywood Highsmith</t>
+  </si>
+  <si>
     <t>Kyle Lowry</t>
   </si>
   <si>
-    <t>Haywood Highsmith</t>
+    <t>Victor Oladipo</t>
   </si>
   <si>
     <t>Duncan Robinson</t>
@@ -76,24 +79,24 @@
     <t>Orlando Robinson (TW)</t>
   </si>
   <si>
-    <t>Victor Oladipo</t>
-  </si>
-  <si>
     <t>Nikola Jović</t>
   </si>
   <si>
     <t>Jamal Cain (TW)</t>
   </si>
   <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
     <t>Udonis Haslem</t>
   </si>
   <si>
     <t>Omer Yurtseven</t>
   </si>
   <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -124,15 +127,18 @@
     <t>6-0</t>
   </si>
   <si>
+    <t>6-4</t>
+  </si>
+  <si>
     <t>7-0</t>
   </si>
   <si>
-    <t>6-4</t>
-  </si>
-  <si>
     <t>6-10</t>
   </si>
   <si>
+    <t>6-11</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -154,10 +160,13 @@
     <t>September 14, 1989</t>
   </si>
   <si>
+    <t>December 9, 1996</t>
+  </si>
+  <si>
     <t>March 25, 1986</t>
   </si>
   <si>
-    <t>December 9, 1996</t>
+    <t>May 4, 1992</t>
   </si>
   <si>
     <t>April 22, 1994</t>
@@ -166,24 +175,24 @@
     <t>July 10, 2000</t>
   </si>
   <si>
-    <t>May 4, 1992</t>
-  </si>
-  <si>
     <t>June 9, 2003</t>
   </si>
   <si>
     <t>March 20, 1999</t>
   </si>
   <si>
+    <t>October 5, 1992</t>
+  </si>
+  <si>
+    <t>September 7, 1988</t>
+  </si>
+  <si>
     <t>June 9, 1980</t>
   </si>
   <si>
     <t>June 19, 1998</t>
   </si>
   <si>
-    <t>September 7, 1988</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -202,10 +211,13 @@
     <t>11</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>2</t>
+    <t>9</t>
   </si>
   <si>
     <t>4</t>
@@ -214,7 +226,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>9</t>
+    <t>14</t>
   </si>
   <si>
     <t>19</t>
@@ -223,9 +235,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Lewis (IL), DePaul</t>
   </si>
   <si>
@@ -241,10 +250,13 @@
     <t>Marquette</t>
   </si>
   <si>
+    <t>Wheeling University</t>
+  </si>
+  <si>
     <t>Villanova</t>
   </si>
   <si>
-    <t>Wheeling University</t>
+    <t>Indiana</t>
   </si>
   <si>
     <t>Williams, Michigan</t>
@@ -253,21 +265,18 @@
     <t>Fresno State</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>Marquette, Oakland</t>
   </si>
   <si>
+    <t>UCLA</t>
+  </si>
+  <si>
     <t>Florida</t>
   </si>
   <si>
     <t>NC State, Georgetown</t>
   </si>
   <si>
-    <t>UCLA</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/strusma01.html</t>
   </si>
   <si>
@@ -286,10 +295,13 @@
     <t>https://www.basketball-reference.com/players/b/butleji01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/highsha01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/lowryky01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/highsha01.html</t>
+    <t>https://www.basketball-reference.com/players/o/oladivi01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/robindu01.html</t>
@@ -298,22 +310,22 @@
     <t>https://www.basketball-reference.com/players/r/robinor01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/o/oladivi01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/jovicni01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/cainja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/z/zelleco01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/l/loveke01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/hasleud01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/y/yurtsom01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/l/loveke01.html</t>
   </si>
 </sst>
 </file>
@@ -684,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,28 +745,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -768,28 +780,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>255</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -803,28 +815,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -838,28 +850,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -873,28 +885,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -908,28 +920,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>230</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,34 +949,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -972,34 +984,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1007,34 +1019,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1042,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1051,25 +1063,25 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,34 +1089,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1118,25 +1130,25 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1150,28 +1162,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>191</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1179,72 +1191,78 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
         <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>42</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1252,25 +1270,57 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>264</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1291,6 +1341,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Miami/Miami.xlsx
+++ b/rosters/2023/Miami/Miami.xlsx
@@ -64,12 +64,12 @@
     <t>Jimmy Butler</t>
   </si>
   <si>
+    <t>Kyle Lowry</t>
+  </si>
+  <si>
     <t>Haywood Highsmith</t>
   </si>
   <si>
-    <t>Kyle Lowry</t>
-  </si>
-  <si>
     <t>Victor Oladipo</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>September 14, 1989</t>
   </si>
   <si>
+    <t>March 25, 1986</t>
+  </si>
+  <si>
     <t>December 9, 1996</t>
   </si>
   <si>
-    <t>March 25, 1986</t>
-  </si>
-  <si>
     <t>May 4, 1992</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>11</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>Marquette</t>
   </si>
   <si>
+    <t>Villanova</t>
+  </si>
+  <si>
     <t>Wheeling University</t>
   </si>
   <si>
-    <t>Villanova</t>
-  </si>
-  <si>
     <t>Indiana</t>
   </si>
   <si>
@@ -295,10 +295,10 @@
     <t>https://www.basketball-reference.com/players/b/butleji01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/lowryky01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/highsha01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/l/lowryky01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/o/oladivi01.html</t>
@@ -949,19 +949,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
@@ -984,19 +984,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
@@ -1294,6 +1294,9 @@
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
+      </c>
+      <c r="B18">
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>

--- a/rosters/2023/Miami/Miami.xlsx
+++ b/rosters/2023/Miami/Miami.xlsx
@@ -85,12 +85,12 @@
     <t>Jamal Cain (TW)</t>
   </si>
   <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
     <t>Cody Zeller</t>
   </si>
   <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
     <t>Udonis Haslem</t>
   </si>
   <si>
@@ -136,12 +136,12 @@
     <t>6-10</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>March 28, 1996</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>March 20, 1999</t>
   </si>
   <si>
+    <t>September 7, 1988</t>
+  </si>
+  <si>
     <t>October 5, 1992</t>
   </si>
   <si>
-    <t>September 7, 1988</t>
-  </si>
-  <si>
     <t>June 9, 1980</t>
   </si>
   <si>
@@ -316,10 +316,10 @@
     <t>https://www.basketball-reference.com/players/c/cainja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/loveke01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/z/zelleco01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/l/loveke01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/hasleud01.html</t>
@@ -1191,19 +1191,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
@@ -1212,10 +1212,10 @@
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>100</v>
@@ -1226,19 +1226,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
       </c>
       <c r="F16">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
@@ -1247,10 +1247,10 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>101</v>
@@ -1270,7 +1270,7 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>235</v>

--- a/rosters/2023/Miami/Miami.xlsx
+++ b/rosters/2023/Miami/Miami.xlsx
@@ -55,12 +55,12 @@
     <t>Caleb Martin</t>
   </si>
   <si>
+    <t>Gabe Vincent</t>
+  </si>
+  <si>
     <t>Tyler Herro</t>
   </si>
   <si>
-    <t>Gabe Vincent</t>
-  </si>
-  <si>
     <t>Jimmy Butler</t>
   </si>
   <si>
@@ -79,24 +79,24 @@
     <t>Orlando Robinson (TW)</t>
   </si>
   <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Jamal Cain (TW)</t>
+  </si>
+  <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
     <t>Nikola Jović</t>
   </si>
   <si>
-    <t>Jamal Cain (TW)</t>
-  </si>
-  <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
-    <t>Cody Zeller</t>
+    <t>Omer Yurtseven</t>
   </si>
   <si>
     <t>Udonis Haslem</t>
   </si>
   <si>
-    <t>Omer Yurtseven</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -106,12 +106,12 @@
     <t>PF</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -133,15 +133,15 @@
     <t>7-0</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>6-11</t>
-  </si>
-  <si>
     <t>March 28, 1996</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>September 28, 1995</t>
   </si>
   <si>
+    <t>June 14, 1996</t>
+  </si>
+  <si>
     <t>January 20, 2000</t>
   </si>
   <si>
-    <t>June 14, 1996</t>
-  </si>
-  <si>
     <t>September 14, 1989</t>
   </si>
   <si>
@@ -175,24 +175,24 @@
     <t>July 10, 2000</t>
   </si>
   <si>
+    <t>September 7, 1988</t>
+  </si>
+  <si>
+    <t>March 20, 1999</t>
+  </si>
+  <si>
+    <t>October 5, 1992</t>
+  </si>
+  <si>
     <t>June 9, 2003</t>
   </si>
   <si>
-    <t>March 20, 1999</t>
-  </si>
-  <si>
-    <t>September 7, 1988</t>
-  </si>
-  <si>
-    <t>October 5, 1992</t>
+    <t>June 19, 1998</t>
   </si>
   <si>
     <t>June 9, 1980</t>
   </si>
   <si>
-    <t>June 19, 1998</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -229,12 +229,12 @@
     <t>14</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Lewis (IL), DePaul</t>
   </si>
   <si>
@@ -265,18 +265,18 @@
     <t>Fresno State</t>
   </si>
   <si>
+    <t>UCLA</t>
+  </si>
+  <si>
     <t>Marquette, Oakland</t>
   </si>
   <si>
-    <t>UCLA</t>
+    <t>NC State, Georgetown</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>NC State, Georgetown</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/strusma01.html</t>
   </si>
   <si>
@@ -286,12 +286,12 @@
     <t>https://www.basketball-reference.com/players/m/martica02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/v/vincega01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/herroty01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/v/vincega01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/butleji01.html</t>
   </si>
   <si>
@@ -310,22 +310,22 @@
     <t>https://www.basketball-reference.com/players/r/robinor01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/loveke01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/cainja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/z/zelleco01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/jovicni01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/cainja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/l/loveke01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/z/zelleco01.html</t>
+    <t>https://www.basketball-reference.com/players/y/yurtsom01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/hasleud01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/y/yurtsom01.html</t>
   </si>
 </sst>
 </file>
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -853,10 +853,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -868,7 +868,7 @@
         <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>90</v>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -888,10 +888,10 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -903,7 +903,7 @@
         <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>91</v>
@@ -955,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -1025,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -1124,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1136,16 +1136,19 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>98</v>
@@ -1180,7 +1183,7 @@
         <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>99</v>
@@ -1191,19 +1194,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
@@ -1212,10 +1215,10 @@
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>100</v>
@@ -1226,31 +1229,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
       </c>
       <c r="F16">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>101</v>
@@ -1261,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1270,16 +1270,16 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
         <v>71</v>
@@ -1296,7 +1296,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -1305,16 +1305,16 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I18" t="s">
         <v>72</v>
